--- a/docs/tableau.xlsx
+++ b/docs/tableau.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>BTS SERVICES INFORMATIQUES AUX ORGANISATIONS</t>
   </si>
@@ -135,36 +135,9 @@
     <t>N° candidat : 02244094682</t>
   </si>
   <si>
-    <t>Projet Java - Gestion de client EDF</t>
-  </si>
-  <si>
-    <t>Portfolio HTML / CSS / JS</t>
-  </si>
-  <si>
     <t>Site vitrine présentation d'un studio d'enregistrement</t>
   </si>
   <si>
-    <t>Déploiement et gestion de base de donnée PostgreSQL avec des connecteur ODBC pour Oracle</t>
-  </si>
-  <si>
-    <t>Maintenance d'un site de gestion de relation entreprises en PHP (refonte du style et ajouts de fonctionnalitées)</t>
-  </si>
-  <si>
-    <t>Création d'une application en PHP - Contrôle des entrées et sortie dans l'entreprise en période de fermeture</t>
-  </si>
-  <si>
-    <t>Création d'une plateforme web en Laravel - Inscription a la certification de langues DELF-DALF (paiement, authentification, …)</t>
-  </si>
-  <si>
-    <t>Déploiement de tous les services mentionnés ci-dessus sur le réseau de l'entreprise (Ubuntu, Docker, Apache, SSL, ...)</t>
-  </si>
-  <si>
-    <t>Création d'une plateforme web avec le framework Laravel : Création et gestion d'enquêtes de satisfaction générée automatiquement avec outils de suivi et de statistiques des réponses.</t>
-  </si>
-  <si>
-    <t>Création d'une plateforme web avec le framework Laravel (Back) et le framework React (Front) : Gestion de demande d'ouverture de port pour le service informatique (Authentification via CAS, SSL, …)</t>
-  </si>
-  <si>
     <t>Refonte complète de l'application de gestion des relations entreprise citée ci-dessus. (Migration vers framework (Laravel + React), refonte des bases de données, …)</t>
   </si>
   <si>
@@ -186,9 +159,6 @@
     <t>Du 02/2022 a Aujourd'hui</t>
   </si>
   <si>
-    <t>Du 11/2021 a Aujourd'hui</t>
-  </si>
-  <si>
     <t>Du 09/2022 a Aujourd'hui</t>
   </si>
   <si>
@@ -198,7 +168,31 @@
     <t>Du 03/2023 au --/--/----</t>
   </si>
   <si>
-    <t xml:space="preserve">Adresse URL du portfolio : </t>
+    <t>Adresse URL du portfolio : https://melobeats.github.io/</t>
+  </si>
+  <si>
+    <t>Projet Java - Gestion de client EDF (Code source, Tests Unitaires, Convention de nommage, Cahier des charges a suivre)</t>
+  </si>
+  <si>
+    <t>Déploiement et gestion de base de donnée PostgreSQL avec des scripts bash de sauvegarde automatique (Documentation Utilisateur, Compte Rendu)</t>
+  </si>
+  <si>
+    <t>Maintenance + Refonte graphique d'un site de gestion de relation entreprises en PHP (Ticket, Code source)</t>
+  </si>
+  <si>
+    <t>Création et déploiement d'une application en PHP - Contrôle des entrées et sortie dans l'entreprise en période de fermeture (Screen interface, Code source, Documentation Utilisateur)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Portfolio HTML / CSS / JS </t>
+  </si>
+  <si>
+    <t>Création et déploiement (sous debian dans un environnement dockerisé) d'une plateforme web en Laravel - Inscription a la certification de langues DELF-DALF (Code source,  Tickets, Interface Utilisateur)</t>
+  </si>
+  <si>
+    <t>Création d'une plateforme web avec le framework Laravel : Création et gestion d'enquêtes de satisfaction générée automatiquement avec outils de suivi et de statistiques des réponses. (Cahier des charges)</t>
+  </si>
+  <si>
+    <t>Création et déploiement d'une plateforme web avec le framework Laravel (Back) et le framework React (Front) avec respect d'une charte graphique spécifique : Gestion de demande d'ouverture de port pour le service informatique (Prototypage Figma, Modele Merise, Cahier des charges, Spécification / Concéption, Méthode Agile)</t>
   </si>
 </sst>
 </file>
@@ -793,6 +787,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -858,12 +858,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1235,8 +1229,8 @@
   </sheetPr>
   <dimension ref="A1:AQ82"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:H5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1254,56 +1248,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:43" ht="40" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29" t="s">
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="29"/>
+      <c r="H1" s="31"/>
     </row>
     <row r="2" spans="1:43" ht="41.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
     </row>
     <row r="3" spans="1:43" ht="40" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="42"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="47" t="s">
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="G3" s="42"/>
-      <c r="H3" s="48"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="50"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:43" ht="40" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="45"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="46"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="48"/>
       <c r="F4" s="10" t="s">
         <v>3</v>
       </c>
@@ -1315,22 +1309,22 @@
       </c>
     </row>
     <row r="5" spans="1:43" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="38" t="s">
-        <v>47</v>
-      </c>
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="40"/>
+      <c r="A5" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="41"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="42"/>
     </row>
     <row r="6" spans="1:43" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="27" t="s">
+      <c r="A6" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="36" t="s">
+      <c r="B6" s="38" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="6" t="s">
@@ -1353,8 +1347,8 @@
       </c>
     </row>
     <row r="7" spans="1:43" s="2" customFormat="1" ht="325" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="28"/>
-      <c r="B7" s="37"/>
+      <c r="A7" s="30"/>
+      <c r="B7" s="39"/>
       <c r="C7" s="20" t="s">
         <v>14</v>
       </c>
@@ -1410,16 +1404,16 @@
       <c r="AQ7"/>
     </row>
     <row r="8" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A8" s="30" t="s">
+      <c r="A8" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="31"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="32"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="34"/>
       <c r="I8"/>
       <c r="J8"/>
       <c r="K8"/>
@@ -1458,17 +1452,17 @@
     </row>
     <row r="9" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="49">
+        <v>38</v>
+      </c>
+      <c r="B9" s="27">
         <v>44950</v>
       </c>
       <c r="C9" s="22"/>
-      <c r="D9" s="12"/>
+      <c r="D9" s="22"/>
       <c r="E9" s="12"/>
       <c r="F9" s="12"/>
       <c r="G9" s="22"/>
-      <c r="H9" s="22"/>
+      <c r="H9" s="12"/>
       <c r="I9"/>
       <c r="J9"/>
       <c r="K9"/>
@@ -1507,16 +1501,16 @@
     </row>
     <row r="10" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" s="50" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" s="22"/>
+        <v>42</v>
+      </c>
+      <c r="B10" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="12"/>
       <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
+      <c r="E10" s="12"/>
       <c r="F10" s="12"/>
-      <c r="G10" s="22"/>
+      <c r="G10" s="12"/>
       <c r="H10" s="22"/>
       <c r="I10"/>
       <c r="J10"/>
@@ -1556,16 +1550,16 @@
     </row>
     <row r="11" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="28" t="s">
         <v>28</v>
-      </c>
-      <c r="B11" s="50" t="s">
-        <v>37</v>
       </c>
       <c r="C11" s="22"/>
       <c r="D11" s="12"/>
       <c r="E11" s="12"/>
       <c r="F11" s="12"/>
-      <c r="G11" s="22"/>
+      <c r="G11" s="12"/>
       <c r="H11" s="13"/>
       <c r="I11"/>
       <c r="J11"/>
@@ -1919,16 +1913,16 @@
       <c r="AQ18"/>
     </row>
     <row r="19" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A19" s="33" t="s">
+      <c r="A19" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="34"/>
-      <c r="C19" s="34"/>
-      <c r="D19" s="34"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="34"/>
-      <c r="G19" s="34"/>
-      <c r="H19" s="35"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="37"/>
       <c r="I19"/>
       <c r="J19"/>
       <c r="K19"/>
@@ -1967,13 +1961,13 @@
     </row>
     <row r="20" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C20" s="22"/>
-      <c r="D20" s="22"/>
+        <v>30</v>
+      </c>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
       <c r="E20" s="12"/>
       <c r="F20" s="12"/>
       <c r="G20" s="22"/>
@@ -2016,16 +2010,16 @@
     </row>
     <row r="21" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="C21" s="22"/>
       <c r="D21" s="22"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="22"/>
-      <c r="G21" s="22"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
       <c r="H21" s="8"/>
       <c r="I21"/>
       <c r="J21"/>
@@ -2065,13 +2059,13 @@
     </row>
     <row r="22" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="C22" s="22"/>
-      <c r="D22" s="22"/>
+      <c r="D22" s="12"/>
       <c r="E22" s="12"/>
       <c r="F22" s="12"/>
       <c r="G22" s="22"/>
@@ -2114,17 +2108,17 @@
     </row>
     <row r="23" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="C23" s="22"/>
       <c r="D23" s="22"/>
       <c r="E23" s="22"/>
-      <c r="F23" s="22"/>
+      <c r="F23" s="8"/>
       <c r="G23" s="22"/>
-      <c r="H23" s="22"/>
+      <c r="H23" s="8"/>
       <c r="I23"/>
       <c r="J23"/>
       <c r="K23"/>
@@ -2162,17 +2156,13 @@
       <c r="AQ23"/>
     </row>
     <row r="24" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C24" s="22"/>
-      <c r="D24" s="22"/>
+      <c r="A24" s="9"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
-      <c r="G24" s="22"/>
+      <c r="G24" s="8"/>
       <c r="H24" s="8"/>
       <c r="I24"/>
       <c r="J24"/>
@@ -2394,10 +2384,10 @@
     </row>
     <row r="29" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B29" s="8" t="s">
         <v>34</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>44</v>
       </c>
       <c r="C29" s="22"/>
       <c r="D29" s="22"/>
@@ -2443,17 +2433,17 @@
     </row>
     <row r="30" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B30" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B30" s="8" t="s">
-        <v>45</v>
-      </c>
       <c r="C30" s="22"/>
-      <c r="D30" s="22"/>
+      <c r="D30" s="12"/>
       <c r="E30" s="22"/>
       <c r="F30" s="22"/>
       <c r="G30" s="22"/>
-      <c r="H30" s="22"/>
+      <c r="H30" s="8"/>
       <c r="I30"/>
       <c r="J30"/>
       <c r="K30"/>
@@ -2492,17 +2482,17 @@
     </row>
     <row r="31" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B31" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B31" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C31" s="22"/>
+      <c r="C31" s="8"/>
       <c r="D31" s="22"/>
-      <c r="E31" s="22"/>
-      <c r="F31" s="22"/>
-      <c r="G31" s="22"/>
-      <c r="H31" s="22"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
       <c r="I31"/>
       <c r="J31"/>
       <c r="K31"/>
@@ -2787,7 +2777,7 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.51181102362204722" footer="0.51181102362204722"/>
-  <pageSetup paperSize="9" scale="48" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="30" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>
